--- a/DOCUMENTACION DE MASTER BARBER/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/DOCUMENTACION DE MASTER BARBER/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Practicas\DOCUMENTACION DE MASTER BARBER\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF108AA-5255-4477-9D53-8E59B7DD1926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27CDD8-FFD4-4554-980F-372D7EA55BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="6" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,8 +1481,8 @@
       <c r="G4" s="1">
         <v>78000</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>50</v>
+      <c r="I4" s="15">
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>38</v>
@@ -1507,8 +1507,8 @@
       <c r="G5" s="1">
         <v>50000</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>51</v>
+      <c r="I5" s="11">
+        <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
@@ -1533,8 +1533,8 @@
       <c r="G6" s="1">
         <v>20000</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>52</v>
+      <c r="I6" s="11">
+        <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>33</v>
@@ -2858,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,14 +3041,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3269,6 +3261,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
@@ -3278,18 +3278,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3307,4 +3295,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DOCUMENTACION DE MASTER BARBER/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
+++ b/DOCUMENTACION DE MASTER BARBER/Normalizacion Modelo Entidad Relacion/NORMALIZACION MB.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Practicas\DOCUMENTACION DE MASTER BARBER\Normalizacion Modelo Entidad Relacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Practicas\DOCUMENTACION DE MASTER BARBER\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27CDD8-FFD4-4554-980F-372D7EA55BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AEA10-0F82-4D2E-8E2C-D75D6E8E6546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
     <sheet name=" Producto Normalización" sheetId="3" r:id="rId2"/>
     <sheet name="TipoServicio Normalización" sheetId="4" r:id="rId3"/>
-    <sheet name="Compra Normalización" sheetId="5" r:id="rId4"/>
-    <sheet name="CarritoCompra_Normalización" sheetId="6" r:id="rId5"/>
-    <sheet name="Factura_Normalización" sheetId="7" r:id="rId6"/>
-    <sheet name="Recordatorio_Normalización" sheetId="8" r:id="rId7"/>
+    <sheet name="Recordatorio_Normalización" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>ID_ReservaTurno</t>
   </si>
@@ -117,9 +114,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>ID_Cliente</t>
-  </si>
-  <si>
     <t>ID_Producto</t>
   </si>
   <si>
@@ -219,114 +213,6 @@
     <t>TS2</t>
   </si>
   <si>
-    <t>Compra</t>
-  </si>
-  <si>
-    <t>ID_Compra</t>
-  </si>
-  <si>
-    <t>Precio_Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorra Morada </t>
-  </si>
-  <si>
-    <t>Nequi</t>
-  </si>
-  <si>
-    <t>Expansion 8</t>
-  </si>
-  <si>
-    <t>Tarjeta de credito</t>
-  </si>
-  <si>
-    <t>Bancolombia</t>
-  </si>
-  <si>
-    <t>Daviplata</t>
-  </si>
-  <si>
-    <t>PRODUCTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_Producto </t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Nombre_Producto</t>
-  </si>
-  <si>
-    <t>Mascarilla Para Puntos Negros</t>
-  </si>
-  <si>
-    <t>Camiseta Con Estampado</t>
-  </si>
-  <si>
-    <t>Gorra Olgada Morada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expasion </t>
-  </si>
-  <si>
-    <t>Par De Expansiones Moradas Numero 8</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>098t47ty785</t>
-  </si>
-  <si>
-    <t>Jose Almanza</t>
-  </si>
-  <si>
-    <t>Almanza@gmail.com</t>
-  </si>
-  <si>
-    <t>CarritoCompra</t>
-  </si>
-  <si>
-    <t>ID_CarritoCompra</t>
-  </si>
-  <si>
-    <t>CAR1</t>
-  </si>
-  <si>
-    <t>CAR2</t>
-  </si>
-  <si>
-    <t>CAR3</t>
-  </si>
-  <si>
-    <t>CAR4</t>
-  </si>
-  <si>
-    <t>Gorra Negra</t>
-  </si>
-  <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>ID_Factura</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -336,12 +222,6 @@
     <t>ID_Recordatorio</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
@@ -360,15 +240,9 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Id_Rol</t>
-  </si>
-  <si>
     <t>ID_Usuario</t>
   </si>
   <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -390,57 +264,6 @@
     <t>Administardor</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>id_Tipo_Pago</t>
-  </si>
-  <si>
-    <t>TipoPago</t>
-  </si>
-  <si>
-    <t>ID_tipo_pago</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>TP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarjeta de credito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bancolombia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nequi </t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_usuario </t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>RO1</t>
   </si>
   <si>
@@ -474,15 +297,6 @@
     <t>Descripcion_S</t>
   </si>
   <si>
-    <t>Descripción_C</t>
-  </si>
-  <si>
-    <t>Decripcion_p</t>
-  </si>
-  <si>
-    <t>Decripcion_P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fecha </t>
   </si>
   <si>
@@ -492,17 +306,20 @@
     <t>PrecioUnitario</t>
   </si>
   <si>
-    <t xml:space="preserve">PrecioUnitario </t>
-  </si>
-  <si>
     <t>Hora</t>
+  </si>
+  <si>
+    <t>user_reset_code</t>
+  </si>
+  <si>
+    <t>user_reset_code_expiration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +340,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -545,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -609,17 +433,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -654,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -693,9 +506,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -721,31 +531,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,12 +562,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -783,9 +588,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -823,7 +628,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -929,7 +734,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1071,7 +876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1079,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
-  <dimension ref="B2:X9"/>
+  <dimension ref="B2:Y9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +910,7 @@
     <col min="19" max="19" width="21.7109375" customWidth="1"/>
     <col min="20" max="20" width="28.85546875" customWidth="1"/>
     <col min="21" max="21" width="24.42578125" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="33.42578125" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" customWidth="1"/>
     <col min="25" max="25" width="19.28515625" customWidth="1"/>
@@ -1115,31 +920,32 @@
     <col min="29" max="29" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="O2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
-      <c r="W2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="X2" s="29"/>
-    </row>
-    <row r="3" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="O2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="X2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="2:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1147,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -1159,19 +965,19 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="22"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1183,30 +989,33 @@
       <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="21">
+        <v>59</v>
+      </c>
+      <c r="D4" s="20">
         <v>45754.847453703704</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>0.84722222222222221</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -1216,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>1</v>
@@ -1225,13 +1034,13 @@
         <v>9</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>114</v>
+      <c r="O4" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>18</v>
@@ -1245,30 +1054,33 @@
       <c r="S4" s="1">
         <v>3109980085</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <v>123456789</v>
       </c>
       <c r="U4" s="1">
         <v>3</v>
       </c>
-      <c r="W4" s="4">
+      <c r="V4" s="1">
+        <v>653635</v>
+      </c>
+      <c r="X4" s="4">
         <v>1</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="21">
+        <v>60</v>
+      </c>
+      <c r="D5" s="20">
         <v>45820.646064814813</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>0.64583333333333337</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1278,10 +1090,10 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>6</v>
@@ -1293,7 +1105,7 @@
         <v>18000</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>19</v>
@@ -1307,30 +1119,33 @@
       <c r="S5" s="1">
         <v>3142758305</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
       </c>
-      <c r="W5" s="4">
+      <c r="V5" s="1">
+        <v>764774</v>
+      </c>
+      <c r="X5" s="4">
         <v>2</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="21">
+        <v>60</v>
+      </c>
+      <c r="D6" s="20">
         <v>45879.521412037036</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>0.52083333333333337</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1340,10 +1155,10 @@
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>7</v>
@@ -1355,7 +1170,7 @@
         <v>22000</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>20</v>
@@ -1369,28 +1184,31 @@
       <c r="S6" s="1">
         <v>3044495505</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
       </c>
-      <c r="W6" s="4">
+      <c r="V6" s="1">
+        <v>976757</v>
+      </c>
+      <c r="X6" s="4">
         <v>3</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Y6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="O2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1399,6 +1217,7 @@
     <hyperlink ref="Q6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1406,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,86 +1242,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>34</v>
+      <c r="B4" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="11">
         <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1">
         <v>78000</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
         <v>50000</v>
@@ -1511,24 +1330,24 @@
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
         <v>20000</v>
@@ -1537,64 +1356,64 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>44</v>
+      <c r="B7" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1">
         <v>15000</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>45</v>
+      <c r="B8" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1">
         <v>32000</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>46</v>
+      <c r="B9" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1613,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C501386-919F-43F1-83F0-4F38E7F1D1A2}">
   <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,47 +1460,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="H3" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="P3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="H3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1693,22 +1513,25 @@
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>104</v>
+      <c r="N4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>60</v>
+      <c r="B5" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1716,14 +1539,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
@@ -1737,37 +1560,40 @@
       <c r="L5" s="1">
         <v>3109980085</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="18">
         <v>123456789</v>
       </c>
       <c r="N5" s="1">
         <v>3</v>
       </c>
+      <c r="O5" s="1">
+        <v>653635</v>
+      </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>61</v>
+      <c r="B6" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="20">
+        <v>72</v>
+      </c>
+      <c r="E6" s="19">
         <v>50000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1781,1085 +1607,76 @@
       <c r="L6" s="1">
         <v>3142758305</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="1">
         <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>764774</v>
       </c>
       <c r="P6" s="4">
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10098977625</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>976757</v>
+      </c>
       <c r="P7" s="4">
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H3:N3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{248447E3-87E3-47BB-9529-1147E02CFDFF}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{7602097B-33A0-4C6B-94B7-E7B880CB7FD4}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{7A19B2E4-ADC0-40F7-B9FE-BE4DA4155EA2}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{42EEB71C-4624-46FB-97D3-39CDE5E394E5}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{43D92F78-DA45-4C52-AA1A-776CD70CC635}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E8590F-DA86-47A1-B849-50E6B16DDC38}">
-  <dimension ref="B2:AB7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="28" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="P2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="X2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="29"/>
-      <c r="AA2" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="13">
-        <v>78000</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="7">
-        <v>78000</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="7">
-        <v>1098556772</v>
-      </c>
-      <c r="T4" s="1">
-        <v>3109980085</v>
-      </c>
-      <c r="U4" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="7">
-        <v>1028662003</v>
-      </c>
-      <c r="T5" s="1">
-        <v>3142758305</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="11">
-        <v>3</v>
-      </c>
-      <c r="X5" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13">
-        <v>8000</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="7">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8000</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="11">
-        <v>3</v>
-      </c>
-      <c r="X6" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="13">
-        <v>15000</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="7">
-        <v>15000</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="AA2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" xr:uid="{49D2474B-9DF1-4078-A96B-79A4C7421D28}"/>
-    <hyperlink ref="R5" r:id="rId2" xr:uid="{1E50DF8C-9485-4106-9EBF-C219D5452F86}"/>
-    <hyperlink ref="R6" r:id="rId3" xr:uid="{81F44E6B-E1EB-48D2-8448-704944444C67}"/>
-    <hyperlink ref="R7" r:id="rId4" xr:uid="{A04B5D26-59EC-4240-91B9-2AADC5F7A1B5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04D097-13EF-4AC6-A48A-2392A17B8316}">
-  <dimension ref="B2:W16"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="21" max="21" width="32.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="M2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="V2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2" s="29"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="7">
-        <v>78000</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1098556772</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>3109980085</v>
-      </c>
-      <c r="R4" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="7">
-        <v>50000</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1028662003</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3142758305</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="7">
-        <v>8000</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="7">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="7">
-        <v>10098977625</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>3044495505</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="M2:S2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{67D4A995-0BAE-4508-88F6-2C7C0253F221}"/>
-    <hyperlink ref="O5" r:id="rId2" xr:uid="{3EDD6798-4441-464A-AED8-7C40EF9AE8B8}"/>
-    <hyperlink ref="O6" r:id="rId3" xr:uid="{E9F1E833-61D4-4645-91DC-9EAF11BFFEF2}"/>
-    <hyperlink ref="O7" r:id="rId4" xr:uid="{FD86A272-56F9-49C1-9B9F-47CADB86462D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73743B71-12CC-4A65-A712-8C586D2A7F83}">
-  <dimension ref="B2:P7"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="G2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="O2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="29"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="14">
-        <v>45801</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="13">
-        <v>78000</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="14">
-        <v>46227</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="2">
-        <v>50000</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="4">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="14">
-        <v>46623</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="13">
-        <v>8000</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" s="4">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="14">
-        <v>47020</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="13">
-        <v>15000</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="O2:P2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ADBC9-506E-40DF-8C0D-E4AEB9E67330}">
   <dimension ref="B2:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,27 +1695,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="B2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -2910,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>2</v>
@@ -2922,29 +1739,29 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>139</v>
+      <c r="B4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="21">
+        <v>59</v>
+      </c>
+      <c r="H4" s="20">
         <v>45754.847453703704</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>0.84722222222222221</v>
       </c>
       <c r="J4" s="13" t="s">
@@ -2954,29 +1771,29 @@
         <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>140</v>
+      <c r="B5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="21">
+        <v>60</v>
+      </c>
+      <c r="H5" s="20">
         <v>45820.646064814813</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.64583333333333337</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -2986,29 +1803,29 @@
         <v>26</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>141</v>
+      <c r="B6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="21">
+        <v>60</v>
+      </c>
+      <c r="H6" s="20">
         <v>45879.521412037036</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>0.52083333333333337</v>
       </c>
       <c r="J6" s="13" t="s">
@@ -3018,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3041,6 +1858,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -3261,14 +2086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
@@ -3278,6 +2095,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7018750B-DBBC-4574-8204-B0301CE76C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3295,16 +2124,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>